--- a/group_5_project/excel_files/rnd_local_search_w_selected_ngh.xlsx
+++ b/group_5_project/excel_files/rnd_local_search_w_selected_ngh.xlsx
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.23023179419087</v>
+        <v>10.87852072024637</v>
       </c>
       <c r="D2">
-        <v>42.18868132299997</v>
+        <v>44.36387359600002</v>
       </c>
     </row>
   </sheetData>
